--- a/output/model_d_alpha_relations_matrix.xlsx
+++ b/output/model_d_alpha_relations_matrix.xlsx
@@ -425,229 +425,229 @@
       <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inv_87</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_480</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_370</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_380</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>inv_29</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_2</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_195</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>inv_14</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_200</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>inv_39</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>02_DRZ_010</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_011</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_010</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_030_1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_495</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>inv_07</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>inv_10</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>inv_12</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_430</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_180</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_510_1</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
         <is>
           <t>01_HOOFD_490_1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>02_DRZ_010</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_430</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>09_AH_I_010</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>inv_85</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>03_GBH_005</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_065_1</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>inv_42</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>inv_01</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_490_2</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>inv_09</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_110</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_015</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_375</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>inv_81</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_020</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>inv_36</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>inv_30</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>01_HOOFD_330</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>04_BPT_005</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>inv_37</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
         <is>
           <t>inv_70</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>inv_33</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>inv_36</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_200</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_510_2</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_330</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_510_1</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_480</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_490_2</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>inv_01</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_380</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>inv_09</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_015</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_030_2</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>inv_81</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_495</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_065_2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_180</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>inv_42</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_011</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>03_GBH_005</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>inv_37</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_010</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_110</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_030_1</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_375</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_065_1</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>inv_39</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>inv_87</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>04_BPT_005</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>inv_12</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_370</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>inv_85</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>inv_29</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_020</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>inv_30</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>01_HOOFD_195</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>inv_14</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>inv_07</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>inv_10</t>
+          <t>inv_87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -837,44 +837,44 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_1</t>
+          <t>01_HOOFD_480</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -939,62 +939,62 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1101,199 +1101,199 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02_DRZ_010</t>
+          <t>01_HOOFD_370</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
       <c r="AN4" t="inlineStr">
         <is>
           <t>-</t>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1328,7 +1328,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01_HOOFD_430</t>
+          <t>01_HOOFD_380</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1393,122 +1393,122 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>←</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1555,7 +1555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09_AH_I_010</t>
+          <t>inv_29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1595,134 +1595,134 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
           <t>-</t>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1782,7 +1782,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>inv_70</t>
+          <t>01_HOOFD_030_2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1797,37 +1797,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1842,27 +1842,27 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -1947,29 +1947,29 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>-</t>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>inv_33</t>
+          <t>01_HOOFD_195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>inv_36</t>
+          <t>inv_14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2261,169 +2261,169 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>-</t>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2463,7 +2463,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01_HOOFD_200</t>
+          <t>01_HOOFD_065_2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2518,94 +2518,94 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AD10" t="inlineStr">
         <is>
           <t>-</t>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
           <t>←</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_2</t>
+          <t>01_HOOFD_200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2810,87 +2810,87 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -2917,12 +2917,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01_HOOFD_330</t>
+          <t>01_HOOFD_510_2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2962,107 +2962,107 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
           <t>←</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01_HOOFD_510_1</t>
+          <t>inv_39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -3264,39 +3264,39 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AF13" t="inlineStr">
         <is>
           <t>-</t>
@@ -3314,47 +3314,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3371,7 +3371,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01_HOOFD_480</t>
+          <t>02_DRZ_010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3381,212 +3381,212 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01_HOOFD_490_2</t>
+          <t>01_HOOFD_011</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3608,134 +3608,134 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>-</t>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>inv_01</t>
+          <t>01_HOOFD_010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3920,12 +3920,12 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01_HOOFD_380</t>
+          <t>01_HOOFD_030_1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4072,197 +4072,197 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4279,7 +4279,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>inv_09</t>
+          <t>01_HOOFD_495</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4394,49 +4394,49 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AG18" t="inlineStr">
         <is>
           <t>-</t>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4506,7 +4506,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01_HOOFD_015</t>
+          <t>inv_07</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4733,214 +4733,214 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_2</t>
+          <t>inv_10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>→</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
         <is>
           <t>||</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AQ20" t="inlineStr">
         <is>
           <t>-</t>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
@@ -4960,7 +4960,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>inv_81</t>
+          <t>inv_12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5025,22 +5025,22 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01_HOOFD_495</t>
+          <t>01_HOOFD_430</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5414,7 +5414,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_2</t>
+          <t>01_HOOFD_180</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5439,12 +5439,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -5504,12 +5504,12 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
@@ -5641,12 +5641,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01_HOOFD_180</t>
+          <t>01_HOOFD_510_1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -5861,14 +5861,14 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>inv_42</t>
+          <t>01_HOOFD_490_1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5918,112 +5918,112 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -6095,7 +6095,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01_HOOFD_011</t>
+          <t>09_AH_I_010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -6225,77 +6225,77 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
         <is>
           <t>←</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6322,7 +6322,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>03_GBH_005</t>
+          <t>inv_85</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6337,24 +6337,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>-</t>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6417,117 +6417,117 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
           <t>||</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -6549,7 +6549,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>inv_37</t>
+          <t>03_GBH_005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -6564,24 +6564,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>-</t>
@@ -6614,12 +6614,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -6644,117 +6644,117 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
           <t>||</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -6776,212 +6776,212 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01_HOOFD_010</t>
+          <t>01_HOOFD_065_1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
         <is>
           <t>||</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -7003,7 +7003,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01_HOOFD_110</t>
+          <t>inv_42</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7178,7 +7178,7 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -7230,7 +7230,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01_HOOFD_030_1</t>
+          <t>inv_01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7290,7 +7290,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
@@ -7457,7 +7457,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01_HOOFD_375</t>
+          <t>01_HOOFD_490_2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -7497,89 +7497,89 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="Z32" t="inlineStr">
         <is>
           <t>-</t>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01_HOOFD_065_1</t>
+          <t>inv_09</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
@@ -7911,7 +7911,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>inv_39</t>
+          <t>01_HOOFD_110</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -7986,74 +7986,74 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AD34" t="inlineStr">
         <is>
           <t>-</t>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>inv_87</t>
+          <t>01_HOOFD_015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -8168,164 +8168,164 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AM35" t="inlineStr">
         <is>
           <t>-</t>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -8365,207 +8365,207 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04_BPT_005</t>
+          <t>01_HOOFD_375</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
@@ -8592,7 +8592,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>inv_12</t>
+          <t>inv_81</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8607,12 +8607,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>←</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -8732,42 +8732,42 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
           <t>←</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>||</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
@@ -8819,7 +8819,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01_HOOFD_370</t>
+          <t>01_HOOFD_020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8859,182 +8859,182 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
         <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AG38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AP38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
@@ -9046,182 +9046,182 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>inv_85</t>
+          <t>inv_36</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
           <t>←</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>→</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>||</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
@@ -9273,7 +9273,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>inv_29</t>
+          <t>inv_30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
@@ -9500,7 +9500,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01_HOOFD_020</t>
+          <t>01_HOOFD_330</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9530,104 +9530,104 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
           <t>→</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>-</t>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>||</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
@@ -9727,7 +9727,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>inv_30</t>
+          <t>04_BPT_005</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9767,12 +9767,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>||</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -9792,22 +9792,22 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -9822,12 +9822,12 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -9857,17 +9857,17 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -9892,12 +9892,12 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
@@ -9937,24 +9937,24 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01_HOOFD_195</t>
+          <t>inv_37</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -10014,12 +10014,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10029,17 +10029,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -10159,7 +10159,7 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>||</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -10181,7 +10181,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>inv_14</t>
+          <t>inv_70</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10196,24 +10196,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>||</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>-</t>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>→</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>||</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -10276,117 +10276,117 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
           <t>||</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ44" t="inlineStr">
-        <is>
-          <t>||</t>
-        </is>
-      </c>
-      <c r="AK44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AL44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AM44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AN44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AO44" t="inlineStr">
-        <is>
-          <t>←</t>
-        </is>
-      </c>
-      <c r="AP44" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -10408,12 +10408,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>inv_07</t>
+          <t>inv_33</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>←</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>←</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>→</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
